--- a/data/test_cleaned.xlsx
+++ b/data/test_cleaned.xlsx
@@ -456,7 +456,11 @@
           <t>Lait au chocolat</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>chocolat</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>lait chocolat</t>
@@ -469,7 +473,11 @@
           <t>Poisson en chocolat</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>produits chocolat</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>poisson chocolat</t>
@@ -482,7 +490,11 @@
           <t>Chocapic en poudre</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>poudre cacao</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>chocapic poudre</t>
@@ -495,7 +507,11 @@
           <t>Cola light sans bulles</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>boissons calories</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>cola bulles</t>
@@ -508,7 +524,11 @@
           <t>Jus de pomme bio</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>jus pomme</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>jus pomme</t>
@@ -521,7 +541,11 @@
           <t>Baguette tradition</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pain blé</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>baguette tradition</t>
@@ -534,7 +558,11 @@
           <t>Croissant fourré à la framboise</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>croissant confiture</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>croissant framboise</t>
@@ -547,7 +575,11 @@
           <t>Steack haché 15%</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>viande bœuf</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>steack</t>
@@ -560,7 +592,11 @@
           <t>Faux steak vegan soja</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>imitation viande</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>steak soja</t>
@@ -573,7 +609,11 @@
           <t>Pizza chorizo XXL</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pizzas tartes viandes légumes</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>pizza chorizo xxl</t>
@@ -586,7 +626,11 @@
           <t>Choco-poiscaille (marque fantaisiste)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>produits chocolat</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>choco poiscaille</t>
@@ -599,7 +643,11 @@
           <t>Yaourt aux myrtilles</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>yaourt lait fruits</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>yaourt myrtilles</t>
@@ -612,7 +660,11 @@
           <t>Soda goût barbe à papa</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>boisson teneur fruits</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>soda goût barbe papa</t>
@@ -625,7 +677,11 @@
           <t>Riz complet</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>riz</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>riz</t>
@@ -638,7 +694,11 @@
           <t>Purée de pommes de terre instantanée</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>purée pomme terre</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>purée pommes terre</t>
@@ -651,7 +711,11 @@
           <t>Gâteau "Miaou" (édition spéciale enfant)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pâtisseries gâteaux</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>gâteau miaou</t>
@@ -664,7 +728,11 @@
           <t>Eau pétillante citron</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>eau</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>eau citron</t>
@@ -677,7 +745,11 @@
           <t>Barre protéinée chocolat-noisette</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>barre chocolat</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>barre chocolat noisette</t>
@@ -690,7 +762,11 @@
           <t>Chips goût poulet rôti</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>chips pommes terre</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>chips goût poulet</t>
@@ -703,7 +779,11 @@
           <t>Limonade artisanale sans sucre</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>boisson</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>limonade sucre</t>
@@ -716,7 +796,11 @@
           <t>Thé vert glacé</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>thé</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>thé</t>
@@ -729,7 +813,11 @@
           <t>Biscuit au beurre salé</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>biscuits beurre</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>biscuit beurre</t>
@@ -742,7 +830,11 @@
           <t>Pâtes coquillettes</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>pâtes</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>pâtes coquillettes</t>
@@ -755,7 +847,11 @@
           <t>Beurre doux</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>beurre</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>beurre</t>
@@ -768,7 +864,11 @@
           <t>Confiture fraise maison</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>confiture fraises</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>confiture fraise maison</t>
@@ -781,7 +881,11 @@
           <t>Glace vanille bourbon</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>glace base lait</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>glace vanille bourbon</t>
@@ -794,7 +898,11 @@
           <t>Muffin triple chocolat</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pâtisseries gâteaux</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>muffin chocolat</t>
@@ -807,7 +915,11 @@
           <t>Sauce tomate basilic</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sauce légumes</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>sauce basilic</t>
@@ -820,7 +932,11 @@
           <t>Salade composée méditerranéenne</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>salades</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>salade</t>
@@ -833,7 +949,11 @@
           <t>Houmous aux pois chiches</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>pois chiches</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>houmous pois</t>
@@ -846,7 +966,11 @@
           <t>Pain de mie complet</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>pain blé</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>pain mie</t>
@@ -859,7 +983,11 @@
           <t>Fromage râpé mozzarella</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>fromage mozzarella</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>fromage mozzarella</t>
@@ -872,7 +1000,11 @@
           <t>Jambon cru fumé</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>porc</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>jambon</t>
@@ -885,7 +1017,11 @@
           <t>Soupe de légumes en brique</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>soupe légumes herbes</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>soupe légumes brique</t>
@@ -898,7 +1034,11 @@
           <t>Quiche lorraine</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>pizzas tartes</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>quiche</t>
@@ -911,7 +1051,11 @@
           <t>Carottes râpées vinaigrette</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>carottes</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>carottes vinaigrette</t>
@@ -924,7 +1068,11 @@
           <t>Pois chiches en conserve</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pois</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>pois</t>
@@ -937,7 +1085,11 @@
           <t>Bière blonde artisanale</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>bière</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>bière</t>
@@ -950,7 +1102,11 @@
           <t>Vin rouge Bordeaux</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>vin</t>
@@ -963,7 +1119,11 @@
           <t>Café moulu arabica</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>café grains</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>café arabica</t>
@@ -976,7 +1136,11 @@
           <t>Tisane camomille</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>tisane infusion</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>tisane camomille</t>
@@ -989,7 +1153,11 @@
           <t>Farine de blé T55</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>farine blé</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>farine blé</t>
@@ -1002,7 +1170,11 @@
           <t>Levure boulangère sèche</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>levure</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>levure</t>
@@ -1015,7 +1187,11 @@
           <t>Cacahuètes grillées salées</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>arachide</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>cacahuètes</t>
@@ -1028,7 +1204,11 @@
           <t>Amandes effilées</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>amande</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>amandes</t>
@@ -1041,7 +1221,11 @@
           <t>Noix de cajou nature</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>noix cajou</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>noix cajou nature</t>
@@ -1054,7 +1238,11 @@
           <t>Céréales muesli croustillant</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>muesli</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>céréales muesli</t>
@@ -1067,7 +1255,11 @@
           <t>Compote pomme poire sans sucre</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>compote fruits mélange</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>compote pomme poire sucre</t>
@@ -1080,7 +1272,11 @@
           <t>Barquette de fraises</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>fraises</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>barquette fraises</t>
@@ -1093,7 +1289,11 @@
           <t>Banane bien mûre</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>bananes</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>banane</t>
@@ -1106,7 +1306,11 @@
           <t>Orange sanguine</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>oranges</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>orange sanguine</t>
@@ -1119,7 +1323,11 @@
           <t>Pomme golden</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>pomme</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>pomme golden</t>
@@ -1132,7 +1340,11 @@
           <t>Mangue exotique</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mangues</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>mangue</t>
@@ -1145,7 +1357,11 @@
           <t>Avocat prêt à consommer</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>avocats</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>avocat</t>
@@ -1158,7 +1374,11 @@
           <t>Tomates cerises</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tomates</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>tomates</t>
@@ -1171,7 +1391,11 @@
           <t>Concombre bio</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>concombres</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>concombre</t>
@@ -1184,7 +1408,11 @@
           <t>Poivron rouge</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>poivrons paprika</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>poivron</t>
@@ -1197,7 +1425,11 @@
           <t>Courgette grillée</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>courgettes</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>courgette</t>
@@ -1210,7 +1442,11 @@
           <t>Aubergine rôtie</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>aubergines</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>aubergine</t>
@@ -1223,7 +1459,11 @@
           <t>Chou-fleur surgelé</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>chou fleur</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>chou fleur</t>
@@ -1236,7 +1476,11 @@
           <t>Brocoli vapeur</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>brocoli</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>brocoli vapeur</t>
@@ -1249,7 +1493,11 @@
           <t>Épinards hachés</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>épinards</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>épinards</t>
@@ -1262,7 +1510,11 @@
           <t>Haricots verts extra-fins</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>haricots gousses</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>haricots</t>
@@ -1275,7 +1527,11 @@
           <t>Frites surgelées</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>pomme terre</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>frites</t>
@@ -1288,7 +1544,11 @@
           <t>Nuggets de poulet</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>plats base viande</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>nuggets poulet</t>
@@ -1301,7 +1561,11 @@
           <t>Filet de saumon frais</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>saumon truite</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>filet saumon</t>
@@ -1314,7 +1578,11 @@
           <t>Thon en boîte</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>thon</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>thon boîte</t>
@@ -1327,7 +1595,11 @@
           <t>Sardines à l’huile d’olive</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sardine pilchard</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>sardines huile olive</t>
@@ -1340,7 +1612,11 @@
           <t>Crevettes décortiquées</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>crevettes</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>crevettes</t>
@@ -1353,7 +1629,11 @@
           <t>Calamar frit</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>calmar</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>calamar</t>
@@ -1366,7 +1646,11 @@
           <t>Huîtres spéciales n°3</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>huître</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>huîtres</t>
@@ -1379,7 +1663,11 @@
           <t>Œufs de poule plein air</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>oeuf poulet</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>œufs poule air</t>
@@ -1392,7 +1680,11 @@
           <t>Omelette aux fines herbes</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>repas base œufs</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>omelette herbes</t>
@@ -1405,7 +1697,11 @@
           <t>Mayonnaise légère</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>mayonnaise huile</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>mayonnaise</t>
@@ -1418,7 +1714,11 @@
           <t>Ketchup épicé</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ketchup tomates</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>ketchup</t>
@@ -1431,7 +1731,11 @@
           <t>Moutarde de Dijon</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>moutarde</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>moutarde dijon</t>
@@ -1444,7 +1748,11 @@
           <t>Cornichons aigre-doux</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cornichons cornichon</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>cornichons</t>
@@ -1457,7 +1765,11 @@
           <t>Pizza quatre fromages</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>pizzas tartes fromage</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>pizza fromages</t>
@@ -1470,7 +1782,11 @@
           <t>Lasagnes bolognaises</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>pâtes garniture viande</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>lasagnes</t>
@@ -1483,7 +1799,11 @@
           <t>Couscous royal</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>plats base viande</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>couscous</t>
@@ -1496,7 +1816,11 @@
           <t>Paella de fruits de mer</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>plats base poisson fruits mer</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>paella fruits mer</t>
@@ -1509,7 +1833,11 @@
           <t>Sushi saumon avocat</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>produits base poisson</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>sushi saumon avocat</t>
@@ -1522,7 +1850,11 @@
           <t>Burger double cheese</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>hamburger viande</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>burger cheese</t>
@@ -1535,7 +1867,11 @@
           <t>Hot-dog américain</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sandwich garniture viande</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>hot dog</t>
@@ -1548,7 +1884,11 @@
           <t>Wrap poulet crudités</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>sandwich garniture viande</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>wrap poulet crudités</t>
@@ -1561,7 +1901,11 @@
           <t>Tacos mexicains</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sandwich garniture viande</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>tacos</t>
@@ -1574,7 +1918,11 @@
           <t>Falafel libanais</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>repas base haricots pois</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>falafel</t>
@@ -1587,7 +1935,11 @@
           <t>Curry de poulet coco</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>plats base viande</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>curry poulet coco</t>
@@ -1600,7 +1952,11 @@
           <t>Naan au fromage</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>pizzas tartes fromage</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>naan fromage</t>
@@ -1613,7 +1969,11 @@
           <t>Nouilles sautées thaï</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>pâtes légumes</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>nouilles</t>
@@ -1626,7 +1986,11 @@
           <t>Ramen japonais</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>pâtes légumes</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>ramen</t>
@@ -1639,7 +2003,11 @@
           <t>Gyozas au porc</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>pâtes garniture viande</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>gyozas porc</t>
@@ -1652,7 +2020,11 @@
           <t>Spring rolls vietnamiens</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>repas légumes</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>spring rolls</t>
@@ -1665,7 +2037,11 @@
           <t>Brownie noix de pécan</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>pâtisseries gâteaux</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>brownie noix pécan</t>
@@ -1678,7 +2054,11 @@
           <t>Cheesecake new-yorkais</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>gâteau fromage crème</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>cheesecake</t>
@@ -1691,7 +2071,11 @@
           <t>Crème brûlée vanille</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>collations desserts aliments</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>crème vanille</t>
@@ -1704,7 +2088,11 @@
           <t>Macaron framboise</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>pâtisseries gâteaux</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>macaron framboise</t>
@@ -1717,7 +2105,11 @@
           <t>Tarte tatin</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>tarte fruits</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>tarte</t>
@@ -1730,7 +2122,11 @@
           <t>Clafoutis aux cerises</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>gâteau fruits</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>clafoutis cerises</t>
@@ -1743,7 +2139,11 @@
           <t>Panna cotta fruits rouges</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>collations desserts aliments</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>panna cotta fruits</t>
